--- a/stimuli.xlsx
+++ b/stimuli.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Anzu/Race_IAT/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EF8742-3802-394D-A29A-CE72B97F7708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500"/>
+    <workbookView xWindow="36560" yWindow="-13480" windowWidth="25600" windowHeight="14880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_GoBack" localSheetId="0">Sheet1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,74 +29,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
-  <si>
-    <t>flower1.jpg</t>
-  </si>
-  <si>
-    <t>flower2.jpg</t>
-  </si>
-  <si>
-    <t>flower3.jpg</t>
-  </si>
-  <si>
-    <t>flower4.jpg</t>
-  </si>
-  <si>
-    <t>flower5.jpg</t>
-  </si>
-  <si>
-    <t>blank.png</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Attractive</t>
-  </si>
-  <si>
-    <t>Enjoy</t>
-  </si>
-  <si>
-    <t>Favorable</t>
-  </si>
-  <si>
-    <t>Likeable</t>
-  </si>
-  <si>
-    <t>Lovely</t>
-  </si>
-  <si>
     <t>Awful</t>
   </si>
   <si>
-    <t>Despise</t>
-  </si>
-  <si>
-    <t>Dirty</t>
-  </si>
-  <si>
-    <t>Disgust</t>
-  </si>
-  <si>
     <t>Nasty</t>
   </si>
   <si>
-    <t>insect1.jpg</t>
-  </si>
-  <si>
-    <t>insect2.jpg</t>
-  </si>
-  <si>
-    <t>insect3.jpg</t>
-  </si>
-  <si>
-    <t>insect4.jpg</t>
-  </si>
-  <si>
-    <t>insect5.jpg</t>
-  </si>
-  <si>
     <t>text_trial_type_1_exemplars</t>
   </si>
   <si>
@@ -112,12 +62,90 @@
   </si>
   <si>
     <t>img_trial_type_4_exemplars</t>
+  </si>
+  <si>
+    <t>Joy</t>
+  </si>
+  <si>
+    <t>Happy</t>
+  </si>
+  <si>
+    <t>Laughter</t>
+  </si>
+  <si>
+    <t>Love</t>
+  </si>
+  <si>
+    <t>Glorious</t>
+  </si>
+  <si>
+    <t>Pleasure</t>
+  </si>
+  <si>
+    <t>Evil</t>
+  </si>
+  <si>
+    <t>Agony</t>
+  </si>
+  <si>
+    <t>Terrible</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>bm14_nc.jpg</t>
+  </si>
+  <si>
+    <t>bm23_nc.jpg</t>
+  </si>
+  <si>
+    <t>bm56_nc.jpg</t>
+  </si>
+  <si>
+    <t>bf14_nc.jpg</t>
+  </si>
+  <si>
+    <t>bf23_nc.jpg</t>
+  </si>
+  <si>
+    <t>bf56_nc.jpg</t>
+  </si>
+  <si>
+    <t>wm1_nc.jpg</t>
+  </si>
+  <si>
+    <t>wm4_nc.jpg</t>
+  </si>
+  <si>
+    <t>wm6_nc.jpg</t>
+  </si>
+  <si>
+    <t>wf3_nc.jpg</t>
+  </si>
+  <si>
+    <t>wf6_nc.jpg</t>
+  </si>
+  <si>
+    <t>Peace</t>
+  </si>
+  <si>
+    <t>Wonderful</t>
+  </si>
+  <si>
+    <t>Failure</t>
+  </si>
+  <si>
+    <t>Hurt</t>
+  </si>
+  <si>
+    <t>wf2_nc.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -148,6 +176,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -415,7 +444,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -430,6 +459,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="239">
@@ -675,6 +708,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -999,14 +1040,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="24.6640625" style="6" customWidth="1"/>
     <col min="3" max="4" width="24.6640625" style="2" bestFit="1" customWidth="1"/>
@@ -1014,160 +1055,172 @@
     <col min="9" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="F7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>5</v>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>5</v>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1179,4 +1232,35 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1120E12-4D87-914D-A125-7DBE6C661DA4}">
+  <dimension ref="D6:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>